--- a/dumps/Stocks/Bharat Coking Coal Limited.xlsx
+++ b/dumps/Stocks/Bharat Coking Coal Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,18 +590,18 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>37.04</v>
+        <v>36.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3723</v>
+        <v>3688</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,7 +610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46050</v>
+        <v>46059</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,14 +626,14 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>37.94</v>
+        <v>37.04</v>
       </c>
       <c r="F6" t="n">
-        <v>3813</v>
+        <v>3723</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -662,18 +662,18 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>35.63</v>
+        <v>37.94</v>
       </c>
       <c r="F7" t="n">
-        <v>3581</v>
+        <v>3813</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,36 +682,72 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3581</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CN#252611030591</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>46044</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>250</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>39.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>9825</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CN#252610906344</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <f>Index!$C$2</f>
         <v/>
       </c>
